--- a/RPA-EOI/excel/Libro1.xlsx
+++ b/RPA-EOI/excel/Libro1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive\Documentos\REPO\RPA\EOI-RPA-Project\RPA-EOI\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B46D87F-7C01-4B62-ACDB-792717574144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AB8586-015C-45BD-96DE-CA3F31580159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4EBEB8D5-403A-42AB-88A7-34EF4201B689}"/>
   </bookViews>
@@ -36,28 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="2">
   <si>
     <t>Nueva columna 0</t>
   </si>
   <si>
-    <t>4 comensales 30m Entrante Dificultad baja</t>
-  </si>
-  <si>
-    <t>Características adicionales: Coste barato, Recomendada para vegetarianos, Nada picante, Hervido, Recetas mexicanas</t>
-  </si>
-  <si>
-    <t>unchecked 500 gramos de hongos frescos
-1½ litros de agua o fondo de verduras
-unchecked 1 pieza de cebolla mediana picada
-2 dientes de ajo picados
-unchecked 2 cucharadas soperas de crema ácida
-2 cucharadas soperas de mantequilla o margarina
-unchecked sal y pimienta al gusto
-3 hojas de epazote picado
-unchecked 1 pizca de tomillo
-2 hojas de laurel
-Ver información nutricional &gt;</t>
+    <t>unchecked</t>
   </si>
 </sst>
 </file>
@@ -432,13 +416,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAAED46-F28C-4F1E-B042-7BC0EABD02F4}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A3"/>
+      <selection activeCell="A13" sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -452,12 +440,47 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/RPA-EOI/excel/Libro1.xlsx
+++ b/RPA-EOI/excel/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive\Documentos\REPO\RPA\EOI-RPA-Project\RPA-EOI\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AB8586-015C-45BD-96DE-CA3F31580159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5D44D4-DC99-46A8-ADB8-FDC65A1C19F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4EBEB8D5-403A-42AB-88A7-34EF4201B689}"/>
   </bookViews>
@@ -36,12 +36,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Nueva columna 0</t>
+    <t>Ingrediente</t>
   </si>
   <si>
-    <t>unchecked</t>
+    <t>500 gramos de hongos frescos                                                                                                        
+1½ litros de agua o fondo de verduras                                                                                                        
+1 pieza de cebolla mediana picada                                                                                                        
+2 dientes de ajo picados                                                                                                        
+2 cucharadas soperas de crema ácida                                                                                                        
+2 cucharadas soperas de mantequilla o margarina                                                                                                        
+sal y pimienta al gusto
+3 hojas de epazote picado                                                                                                        
+1 pizca de tomillo                                                                                                        
+2 hojas de laurel</t>
+  </si>
+  <si>
+    <t>4 comensales
+30m
+Entrante
+Dificultad baja</t>
   </si>
 </sst>
 </file>
@@ -416,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAAED46-F28C-4F1E-B042-7BC0EABD02F4}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:A13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,55 +448,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="4" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RPA-EOI/excel/Libro1.xlsx
+++ b/RPA-EOI/excel/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive\Documentos\REPO\RPA\EOI-RPA-Project\RPA-EOI\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5D44D4-DC99-46A8-ADB8-FDC65A1C19F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A4E7FE-E6A8-46DF-BD4E-DB2A6C84A050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4EBEB8D5-403A-42AB-88A7-34EF4201B689}"/>
   </bookViews>
@@ -41,21 +41,21 @@
     <t>Ingrediente</t>
   </si>
   <si>
-    <t>500 gramos de hongos frescos                                                                                                        
-1½ litros de agua o fondo de verduras                                                                                                        
-1 pieza de cebolla mediana picada                                                                                                        
-2 dientes de ajo picados                                                                                                        
-2 cucharadas soperas de crema ácida                                                                                                        
-2 cucharadas soperas de mantequilla o margarina                                                                                                        
-sal y pimienta al gusto
-3 hojas de epazote picado                                                                                                        
-1 pizca de tomillo                                                                                                        
-2 hojas de laurel</t>
+    <t>4 piezas de pollo                                                                                                        
+5 cucharadas soperas de ají panca en pasta                                                                                                        
+3 cucharadas soperas de ajo molido                                                                                                        
+1 cucharadita de comino molido                                                                                                        
+1 cucharadita de pimienta negra molida                                                                                                        
+1 cucharadita de orégano seco molido                                                                                                        
+2 cucharadas soperas de mostaza                                                                                                        
+100 mililitros de vinagre tinto                                                                                                        
+100 mililitros de sillao                                                                                                        
+3 cucharaditas de sal                                                                                                        
+aceite c/n</t>
   </si>
   <si>
     <t>4 comensales
-30m
-Entrante
+45m
 Dificultad baja</t>
   </si>
 </sst>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAAED46-F28C-4F1E-B042-7BC0EABD02F4}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>

--- a/RPA-EOI/excel/Libro1.xlsx
+++ b/RPA-EOI/excel/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive\Documentos\REPO\RPA\EOI-RPA-Project\RPA-EOI\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A4E7FE-E6A8-46DF-BD4E-DB2A6C84A050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A543198-71E3-4AAB-8D3E-32F3F8B8A40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4EBEB8D5-403A-42AB-88A7-34EF4201B689}"/>
   </bookViews>
@@ -41,22 +41,22 @@
     <t>Ingrediente</t>
   </si>
   <si>
-    <t>4 piezas de pollo                                                                                                        
-5 cucharadas soperas de ají panca en pasta                                                                                                        
-3 cucharadas soperas de ajo molido                                                                                                        
-1 cucharadita de comino molido                                                                                                        
-1 cucharadita de pimienta negra molida                                                                                                        
-1 cucharadita de orégano seco molido                                                                                                        
-2 cucharadas soperas de mostaza                                                                                                        
-100 mililitros de vinagre tinto                                                                                                        
-100 mililitros de sillao                                                                                                        
-3 cucharaditas de sal                                                                                                        
-aceite c/n</t>
+    <t>1 kilogramo de mejillones                                                                                                        
+1 cebolla
+50 gramos de mantequilla                                                                                                        
+50 gramos de harina de trigo                                                                                                        
+1 pizca de sal                                                                                                        
+500 mililitros de leche                                                                                                        
+1 vaso de aceite para freír                                                                                                        
+2 huevos
+200 gramos de pan rallado                                                                                                        
+1 pizca de sal al gusto</t>
   </si>
   <si>
-    <t>4 comensales
-45m
-Dificultad baja</t>
+    <t>5 comensales
+1h 30m
+Entrante
+Dificultad media</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>

--- a/RPA-EOI/excel/Libro1.xlsx
+++ b/RPA-EOI/excel/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive\Documentos\REPO\RPA\EOI-RPA-Project\RPA-EOI\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A543198-71E3-4AAB-8D3E-32F3F8B8A40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD445318-F7AF-49B7-988B-DCD5C00111C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4EBEB8D5-403A-42AB-88A7-34EF4201B689}"/>
   </bookViews>
@@ -36,29 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Ingrediente</t>
-  </si>
-  <si>
-    <t>1 kilogramo de mejillones                                                                                                        
-1 cebolla
-50 gramos de mantequilla                                                                                                        
-50 gramos de harina de trigo                                                                                                        
-1 pizca de sal                                                                                                        
-500 mililitros de leche                                                                                                        
-1 vaso de aceite para freír                                                                                                        
-2 huevos
-200 gramos de pan rallado                                                                                                        
-1 pizca de sal al gusto</t>
-  </si>
-  <si>
-    <t>5 comensales
-1h 30m
-Entrante
-Dificultad media</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAAED46-F28C-4F1E-B042-7BC0EABD02F4}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A3:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,20 +421,11 @@
     <col min="2" max="2" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
     </row>
-    <row r="3" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>

--- a/RPA-EOI/excel/Libro1.xlsx
+++ b/RPA-EOI/excel/Libro1.xlsx
@@ -406,7 +406,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B10"/>
+  <x:dimension ref="A1:B9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -484,14 +484,6 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/RPA-EOI/excel/Libro1.xlsx
+++ b/RPA-EOI/excel/Libro1.xlsx
@@ -1,121 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook"/>
-  <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Hoja1" sheetId="1" r:id="rId2"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="125725"/>
-</x:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive\Documentos\REPO\RPA\EOI-RPA-Project\RPA-EOI\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF63EDDB-C786-47B1-BAF2-174164A469D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:si>
-    <x:t>Cantidad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ingrediente</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>zucchinis grandes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cebolla chica</x:t>
-  </x:si>
-  <x:si>
-    <x:t>huevos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cucharada postre de nuez moscada</x:t>
-  </x:si>
-  <x:si>
-    <x:t>½</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cucharada postre de ajo en polvo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pizca de pimienta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>¼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cucharada postre de sal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cucharada postre de mostaza</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+  <si>
+    <t>caracteristicas</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Ingrediente</t>
+  </si>
+  <si>
+    <t>3 comensales, 15m, Plato principal, Dificultad baja</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>zucchinis grandes</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>cebolla chica</t>
+  </si>
+  <si>
+    <t>huevos</t>
+  </si>
+  <si>
+    <t>cucharada postre de nuez moscada</t>
+  </si>
+  <si>
+    <t>½</t>
+  </si>
+  <si>
+    <t>cucharada postre de ajo en polvo</t>
+  </si>
+  <si>
+    <t>pizca de pimienta</t>
+  </si>
+  <si>
+    <t>¼</t>
+  </si>
+  <si>
+    <t>cucharada postre de sal</t>
+  </si>
+  <si>
+    <t>cucharada postre de mostaza</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,93 +408,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:B9"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:2">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
-      <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>